--- a/DOCUMENTOS/ARTEFACTOS/Backlog del Producto.xlsx
+++ b/DOCUMENTOS/ARTEFACTOS/Backlog del Producto.xlsx
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="115">
   <si>
     <t>Backlog del Producto</t>
   </si>
@@ -221,37 +221,58 @@
     <t>HU0001</t>
   </si>
   <si>
+    <t>Odontólogo</t>
+  </si>
+  <si>
+    <t>Una interfaz que me permita registrar y visualizar fácilmente el estado actual de la dentadura del paciente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema permite seleccionar un rango de fechas o un paciente.
+-Mostrar el odontograma del paciente.
+El sistema permite exportar los odontrogramas en formatos comunes como PDF o imprimirlos directamente.
+</t>
+  </si>
+  <si>
+    <t>1 semana</t>
+  </si>
+  <si>
+    <t>HU0002</t>
+  </si>
+  <si>
+    <t>Una interfaz que muestre de manera clara e intuitiva la información del paciente, incluyendo su nombre, edad e historial médico</t>
+  </si>
+  <si>
+    <t>Revisar la informacion del paciente de forma rápida y precisa.</t>
+  </si>
+  <si>
+    <t>- Mostroar paciente por codigo, nombre, estado, direccion y adontologo asignado</t>
+  </si>
+  <si>
+    <t>HU0003</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Administrador de la clínica dental</t>
   </si>
   <si>
     <t xml:space="preserve">Generar informes detallados a partir de los odontogramas de los pacientes </t>
   </si>
   <si>
-    <t>- Seleccionar fecha o paciente para informe.
-- Detallar estado dental del paciente.
-- Exportar en PDF o imprimir.
-- Reflejar última información de odontogramas.
-- Generar rápido y relevante.</t>
+    <t>- Previsualizar el informe detallado del odontograma del paciente</t>
   </si>
   <si>
-    <t>HU0002, HU0003</t>
+    <t>HU0004</t>
   </si>
   <si>
-    <t>HU0007</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">Como médico necesito especificar el tipo de tratamiento que se realizará al paciente </t>
   </si>
   <si>
     <t>Gestionar los datos de los pacientes de manera eficiente</t>
   </si>
   <si>
-    <t>- Agregar, editar y eliminar información de pacientes.
-- Registrar información de contacto: teléfono y correo electrónico.
-- Buscar y guardar datos del seguro dental en perfil del paciente (si aplica).</t>
-  </si>
-  <si>
-    <t>HU003, HU004</t>
+    <t>-El sistema permite registrar un nuevo tratamiento , incluyendo la duración aproximada. 
+-El sistema permite la opción para registrar los cuidados post-tratamiento.
+-El sistema permite opción para poder guardar todas las citas.
+-El sistema permite la creación de ficha de tratamiento de ortodoncia que incluya el diagnóstico, plan de tratamiento y cualquier nota relevante.</t>
   </si>
   <si>
     <t>EPIC02</t>
@@ -266,10 +287,24 @@
     <t>Llevar un mejor registro de los odontogramas</t>
   </si>
   <si>
-    <t>HU0002</t>
+    <t>HU0005</t>
   </si>
   <si>
     <t>Asistente Dental</t>
+  </si>
+  <si>
+    <t>Poder actualizar fácilmente la información de contacto de los pacientes, como dirección, números de teléfono y correo electrónico, para mantener los registros actualizados.</t>
+  </si>
+  <si>
+    <t>Actualizar información del paciente</t>
+  </si>
+  <si>
+    <t>- Agregar, editar y eliminar información de pacientes.
+- Registrar información de contacto: teléfono y correo electrónico.
+- Buscar y guardar datos del seguro dental en perfil del paciente (si aplica).</t>
+  </si>
+  <si>
+    <t>HU0006</t>
   </si>
   <si>
     <t>Ver el odontograma actualizado de un paciente antes de que llegue a su cita.</t>
@@ -278,7 +313,9 @@
     <t>Preparar el equipo y materiales necesarios para su tratamiento.</t>
   </si>
   <si>
-    <t>- Mostrar opciones de materiales necesarios.
+    <t>-El sistema permite asociar un tratamiento específico por diente seleccionado en el odontograma.
+-El sistema registra la fecha en que se realiza el tratamiento.
+-El sistema permite añadir notas o detalles adicionales con el tratamiento.
 - Mostrar odontograma actualizado del paciente.</t>
   </si>
   <si>
@@ -294,10 +331,22 @@
     <t>Obtener una informacion detallada sobre la salud de pacientes</t>
   </si>
   <si>
-    <t>HU0003</t>
+    <t>HU0007</t>
   </si>
   <si>
-    <t>Centrarme específicamente en el estado de los tejidos de soporte de los dientes</t>
+    <t>Medico</t>
+  </si>
+  <si>
+    <t>Gestionar odontogramas de pacientes</t>
+  </si>
+  <si>
+    <t>Revisar el estado de tratamientos realizados, para realizar ajustes según sea necesario y brindar recomendaciones a mis pacientes</t>
+  </si>
+  <si>
+    <t>HU0008</t>
+  </si>
+  <si>
+    <t>Centrarme específicamente en el estado de los tejidos de  dientes de los pacientes</t>
   </si>
   <si>
     <t>Obtener información detallada sobre la salud periodontal</t>
@@ -309,10 +358,7 @@
 - Añadir notas en odontogramas.</t>
   </si>
   <si>
-    <t>HU002</t>
-  </si>
-  <si>
-    <t>HU0004</t>
+    <t>HU0009</t>
   </si>
   <si>
     <t xml:space="preserve">Especificar el tipo de tratamiento que se realizará al paciente </t>
@@ -339,10 +385,25 @@
     <t>tener un acceso eficiente y eficaz a los datos de los pacientes</t>
   </si>
   <si>
-    <t>HU0005</t>
+    <t>HU0010</t>
   </si>
   <si>
     <t>Personal clínico</t>
+  </si>
+  <si>
+    <t>Vizualizar la historia clinica del paciente</t>
+  </si>
+  <si>
+    <t>Facilitar un diagnóstico rápido y preciso y proporcionar un tratamiento eficaz,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- El sistema debe permitir acceder a la información de los pacientes en un máximo de dos clics desde la página principal.
+El sistema debe mostrar un historial completo de las citas pasadas y futuras del paciente, incluyendo fechas, horas y tipo de cita.
+La visualización de la información del paciente debe ser clara, organizada y fácil de entender, sin necesidad de navegación complicada.
+</t>
+  </si>
+  <si>
+    <t>HU0011</t>
   </si>
   <si>
     <t>Un sistema de registro rápido de pacientes de emergencia</t>
@@ -356,7 +417,7 @@
 - Restringir acceso a la información de pacientes en emergencia solo a colaboradores necesarios.</t>
   </si>
   <si>
-    <t>HU0009</t>
+    <t>HU0012</t>
   </si>
   <si>
     <t>Que el sistema se integre con sistemas de imágenes radiográficas</t>
@@ -369,13 +430,7 @@
 - Ampliar y examinar imágenes radiográficas para evaluación detallada.</t>
   </si>
   <si>
-    <t>HU001, HU004</t>
-  </si>
-  <si>
     <t>EPIC05</t>
-  </si>
-  <si>
-    <t>Odontólogo</t>
   </si>
   <si>
     <t>Registrar el tratamiento recomendado segun resultados registrados en el odontograma y generar remomendaciones</t>
@@ -384,10 +439,22 @@
     <t>Mejorar la salud y prevenir problemas futuros</t>
   </si>
   <si>
-    <t>HU0006</t>
+    <t>HU0013</t>
   </si>
   <si>
-    <t>Que el sistema me permita registrar el tratamiento recomendado según los resultados registrados en el odontograma.</t>
+    <t>Recibir notificaciones automáticas sobre los tratamientos pendientes como recordatorios y emergencias</t>
+  </si>
+  <si>
+    <t>Mantenerse al dia de los tratamientos de los pacientes</t>
+  </si>
+  <si>
+    <t>- Previzualizar norificaciones sobre los tratamientos</t>
+  </si>
+  <si>
+    <t>HU0014</t>
+  </si>
+  <si>
+    <t>Como personal clínico, necesito una funcionalidad de búsqueda avanzada que me permita encontrar rápidamente la información de un paciente específico utilizando diferentes criterios, como nombre, fecha de nacimiento o número de identificación,</t>
   </si>
   <si>
     <t>Tener un mejor registro de lospacientes</t>
@@ -398,7 +465,7 @@
 - Añadir notas o detalles adicionales con el tratamiento.</t>
   </si>
   <si>
-    <t>HU0008</t>
+    <t>HU0015</t>
   </si>
   <si>
     <t>Una herramienta que me permita generar recomendaciones de higiene dental personalizadas para mis pacientes</t>
@@ -487,8 +554,12 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color rgb="FFEBEBEB"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -498,10 +569,6 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -692,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -771,10 +838,10 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -782,30 +849,45 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -846,8 +928,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFCC"/>
-          <bgColor rgb="FFCCFFCC"/>
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <border/>
@@ -866,8 +948,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <fgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFCCFFCC"/>
         </patternFill>
       </fill>
       <border/>
@@ -1121,8 +1203,8 @@
     <col customWidth="1" min="4" max="4" width="48.0"/>
     <col customWidth="1" min="5" max="5" width="24.25"/>
     <col customWidth="1" min="6" max="6" width="11.25"/>
-    <col customWidth="1" min="7" max="7" width="19.0"/>
-    <col customWidth="1" min="8" max="8" width="56.38"/>
+    <col customWidth="1" min="7" max="7" width="22.38"/>
+    <col customWidth="1" min="8" max="8" width="70.88"/>
     <col customWidth="1" min="9" max="9" width="23.63"/>
     <col customWidth="1" min="10" max="10" width="53.13"/>
     <col customWidth="1" min="11" max="11" width="10.25"/>
@@ -1351,7 +1433,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" ht="48.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="26" t="s">
         <v>26</v>
@@ -1365,17 +1447,35 @@
       <c r="E7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
+      <c r="F7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="33">
+        <v>10.0</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="35"/>
+      <c r="N7" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="O7" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="35"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -1387,23 +1487,41 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="1"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>34</v>
+      </c>
       <c r="M8" s="29"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="31"/>
+      <c r="N8" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" s="35"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -1417,41 +1535,39 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="29" t="s">
-        <v>30</v>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="32" t="s">
+        <v>39</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I9" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="30" t="s">
-        <v>33</v>
+      <c r="J9" s="41" t="s">
+        <v>42</v>
       </c>
-      <c r="K9" s="31">
-        <v>10.0</v>
+      <c r="K9" s="33">
+        <v>5.0</v>
       </c>
-      <c r="L9" s="31">
-        <v>25.0</v>
-      </c>
-      <c r="M9" s="29" t="s">
+      <c r="L9" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="31">
-        <v>1.0</v>
+      <c r="M9" s="29"/>
+      <c r="N9" s="33">
+        <v>3.0</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="O9" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="P9" s="31"/>
+      <c r="P9" s="35"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -1463,43 +1579,41 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="1"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="30" t="s">
-        <v>35</v>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="29" t="s">
+        <v>43</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="37" t="s">
-        <v>36</v>
+      <c r="H10" s="38" t="s">
+        <v>44</v>
       </c>
-      <c r="I10" s="37" t="s">
-        <v>37</v>
+      <c r="I10" s="44" t="s">
+        <v>45</v>
       </c>
-      <c r="J10" s="30" t="s">
-        <v>38</v>
+      <c r="J10" s="32" t="s">
+        <v>46</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="35">
         <v>10.0</v>
       </c>
-      <c r="L10" s="31">
-        <v>20.0</v>
+      <c r="L10" s="40" t="s">
+        <v>34</v>
       </c>
-      <c r="M10" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" s="31">
+      <c r="M10" s="35"/>
+      <c r="N10" s="35">
         <v>2.0</v>
       </c>
-      <c r="O10" s="31" t="s">
+      <c r="O10" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="P10" s="31"/>
+      <c r="P10" s="35"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -1511,31 +1625,49 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" ht="25.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="26" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
-      <c r="C11" s="38" t="s">
-        <v>41</v>
+      <c r="C11" s="26" t="s">
+        <v>48</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>42</v>
+      <c r="D11" s="45" t="s">
+        <v>49</v>
       </c>
-      <c r="E11" s="38" t="s">
-        <v>43</v>
+      <c r="E11" s="26" t="s">
+        <v>50</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
+      <c r="F11" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="33">
+        <v>10.0</v>
+      </c>
+      <c r="L11" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="35"/>
+      <c r="N11" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="P11" s="35"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -1547,40 +1679,40 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12">
       <c r="A12" s="1"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="30" t="s">
-        <v>44</v>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="32" t="s">
+        <v>56</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
-      <c r="H12" s="40" t="s">
-        <v>46</v>
+      <c r="H12" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
-      <c r="J12" s="30" t="s">
-        <v>48</v>
+      <c r="J12" s="32" t="s">
+        <v>59</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="35">
         <v>8.0</v>
       </c>
-      <c r="L12" s="31">
-        <v>15.0</v>
+      <c r="L12" s="40" t="s">
+        <v>34</v>
       </c>
-      <c r="N12" s="31">
+      <c r="N12" s="35">
         <v>1.0</v>
       </c>
-      <c r="O12" s="31" t="s">
+      <c r="O12" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="P12" s="31"/>
+      <c r="P12" s="35"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -1592,31 +1724,49 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="26" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>51</v>
+      <c r="D13" s="45" t="s">
+        <v>62</v>
       </c>
-      <c r="E13" s="38" t="s">
-        <v>52</v>
+      <c r="E13" s="26" t="s">
+        <v>63</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
+      <c r="F13" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="33">
+        <v>5.0</v>
+      </c>
+      <c r="L13" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="35"/>
+      <c r="N13" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="O13" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" s="35"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1628,43 +1778,41 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="1"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="30" t="s">
-        <v>53</v>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="32" t="s">
+        <v>68</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
-      <c r="H14" s="30" t="s">
-        <v>54</v>
+      <c r="H14" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="35">
         <v>9.0</v>
       </c>
-      <c r="L14" s="31">
-        <v>30.0</v>
+      <c r="L14" s="40" t="s">
+        <v>34</v>
       </c>
-      <c r="M14" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N14" s="31">
+      <c r="M14" s="29"/>
+      <c r="N14" s="35">
         <v>1.0</v>
       </c>
-      <c r="O14" s="31" t="s">
+      <c r="O14" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="P14" s="31"/>
+      <c r="P14" s="35"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -1676,41 +1824,41 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="1"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="30" t="s">
-        <v>58</v>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="32" t="s">
+        <v>72</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
-      <c r="H15" s="37" t="s">
-        <v>59</v>
+      <c r="H15" s="44" t="s">
+        <v>73</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
-      <c r="K15" s="31">
+      <c r="K15" s="35">
         <v>9.0</v>
       </c>
-      <c r="L15" s="31">
-        <v>25.0</v>
+      <c r="L15" s="40" t="s">
+        <v>34</v>
       </c>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31">
+      <c r="M15" s="35"/>
+      <c r="N15" s="35">
         <v>2.0</v>
       </c>
-      <c r="O15" s="31" t="s">
+      <c r="O15" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="P15" s="31"/>
+      <c r="P15" s="35"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -1722,31 +1870,49 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" ht="85.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="26" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
-      <c r="C16" s="38" t="s">
-        <v>63</v>
+      <c r="C16" s="26" t="s">
+        <v>77</v>
       </c>
-      <c r="D16" s="39" t="s">
-        <v>64</v>
+      <c r="D16" s="45" t="s">
+        <v>78</v>
       </c>
-      <c r="E16" s="38" t="s">
-        <v>65</v>
+      <c r="E16" s="26" t="s">
+        <v>79</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
+      <c r="F16" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="33">
+        <v>10.0</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="35"/>
+      <c r="N16" s="33">
+        <v>2.0</v>
+      </c>
+      <c r="O16" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" s="35"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -1758,43 +1924,41 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" ht="27.0" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="30" t="s">
-        <v>66</v>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="32" t="s">
+        <v>85</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="J17" s="30" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
-      <c r="K17" s="31">
+      <c r="K17" s="35">
         <v>7.0</v>
       </c>
-      <c r="L17" s="31">
-        <v>20.0</v>
+      <c r="L17" s="40" t="s">
+        <v>34</v>
       </c>
-      <c r="M17" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="N17" s="31">
+      <c r="M17" s="30"/>
+      <c r="N17" s="35">
         <v>3.0</v>
       </c>
-      <c r="O17" s="31" t="s">
+      <c r="O17" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="P17" s="31"/>
+      <c r="P17" s="35"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -1806,43 +1970,41 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" ht="26.25" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="30" t="s">
-        <v>71</v>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="32" t="s">
+        <v>89</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
-      <c r="H18" s="37" t="s">
-        <v>72</v>
+      <c r="H18" s="44" t="s">
+        <v>90</v>
       </c>
-      <c r="I18" s="37" t="s">
-        <v>73</v>
+      <c r="I18" s="44" t="s">
+        <v>91</v>
       </c>
       <c r="J18" s="30" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
-      <c r="K18" s="31">
+      <c r="K18" s="35">
         <v>8.0</v>
       </c>
-      <c r="L18" s="31">
-        <v>25.0</v>
+      <c r="L18" s="40" t="s">
+        <v>34</v>
       </c>
-      <c r="M18" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="N18" s="31">
+      <c r="M18" s="35"/>
+      <c r="N18" s="35">
         <v>3.0</v>
       </c>
-      <c r="O18" s="31" t="s">
+      <c r="O18" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="P18" s="31"/>
+      <c r="P18" s="35"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -1854,31 +2016,49 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" ht="28.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="26" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
-      <c r="D19" s="39" t="s">
-        <v>78</v>
+      <c r="D19" s="45" t="s">
+        <v>94</v>
       </c>
-      <c r="E19" s="38" t="s">
-        <v>79</v>
+      <c r="E19" s="26" t="s">
+        <v>95</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
+      <c r="F19" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="33">
+        <v>7.0</v>
+      </c>
+      <c r="L19" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="35"/>
+      <c r="N19" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="O19" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="P19" s="35"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -1892,39 +2072,39 @@
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="30" t="s">
-        <v>80</v>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="32" t="s">
+        <v>100</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
-      <c r="H20" s="30" t="s">
-        <v>81</v>
+      <c r="H20" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="35">
         <v>9.0</v>
       </c>
-      <c r="L20" s="31">
-        <v>20.0</v>
+      <c r="L20" s="40" t="s">
+        <v>34</v>
       </c>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31">
+      <c r="M20" s="35"/>
+      <c r="N20" s="35">
         <v>3.0</v>
       </c>
-      <c r="O20" s="31" t="s">
+      <c r="O20" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="P20" s="31"/>
+      <c r="P20" s="35"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
@@ -1936,41 +2116,41 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" ht="26.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="30" t="s">
-        <v>84</v>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="32" t="s">
+        <v>104</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
-      <c r="H21" s="37" t="s">
-        <v>85</v>
+      <c r="H21" s="44" t="s">
+        <v>105</v>
       </c>
-      <c r="I21" s="37" t="s">
-        <v>86</v>
+      <c r="I21" s="44" t="s">
+        <v>106</v>
       </c>
       <c r="J21" s="30" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="35">
         <v>10.0</v>
       </c>
-      <c r="L21" s="31">
-        <v>30.0</v>
+      <c r="L21" s="40" t="s">
+        <v>34</v>
       </c>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31">
+      <c r="M21" s="35"/>
+      <c r="N21" s="35">
         <v>1.0</v>
       </c>
-      <c r="O21" s="31" t="s">
+      <c r="O21" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="P21" s="31"/>
+      <c r="P21" s="35"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
@@ -27447,48 +27627,63 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
   </mergeCells>
-  <conditionalFormatting sqref="B7:G946 H8:H946 I7:I946 J8:J946 K7:P946">
+  <conditionalFormatting sqref="H7">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$O8="Eliminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$O8="En Progreso"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>$O8="Terminado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:G946 I7:I946 K7:P946 J8:J946 H9:H946">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>$O7="Terminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:G946 H8:H946 I7:I946 J8:J946 K7:P946">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="B7:G946 I7:I946 K7:P946 J8:J946 H9:H946">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>$O7="En Progreso"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:G946 H8:H946 I7:I946 J8:J946 K7:P946">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="B7:G946 I7:I946 K7:P946 J8:J946 H9:H946">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>$O7="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3">
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
       <formula>$O12="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
       <formula>$O12="In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3">
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
       <formula>$O12="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1">
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="10" stopIfTrue="1">
       <formula>$O10="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1">
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
       <formula>$O10="In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1">
-    <cfRule type="expression" dxfId="2" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="12" stopIfTrue="1">
       <formula>$O10="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27530,408 +27725,408 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="B1" s="42"/>
+      <c r="B1" s="47"/>
       <c r="H1" s="17"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>88</v>
+      <c r="C2" s="48" t="s">
+        <v>108</v>
       </c>
-      <c r="D2" s="43" t="s">
-        <v>89</v>
+      <c r="D2" s="48" t="s">
+        <v>109</v>
       </c>
-      <c r="E2" s="43" t="s">
-        <v>90</v>
+      <c r="E2" s="48" t="s">
+        <v>110</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="43" t="s">
-        <v>91</v>
+      <c r="H2" s="48" t="s">
+        <v>111</v>
       </c>
-      <c r="I2" s="44" t="s">
-        <v>92</v>
+      <c r="I2" s="49" t="s">
+        <v>112</v>
       </c>
-      <c r="J2" s="45"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="B3" s="46">
+      <c r="B3" s="51">
         <v>1.0</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="52">
         <v>43332.0</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="53">
         <v>30.0</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="54">
         <v>43362.0</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="51">
         <f>IF(B3="","",SUMIF('Backlog del Producto'!N$7:N$45,Sprints!B3,'Backlog del Producto'!L$7:L$45))</f>
-        <v>100</v>
+        <v>0</v>
       </c>
-      <c r="G3" s="50" t="s">
-        <v>93</v>
+      <c r="G3" s="55" t="s">
+        <v>113</v>
       </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="51"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="56"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="B4" s="46">
+      <c r="B4" s="51">
         <v>2.0</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="57">
         <f t="shared" ref="C4:C7" si="1">IF(AND(C3&lt;&gt;"",D3&lt;&gt;"",D4&lt;&gt;""),C3+D3,"")</f>
         <v>43362</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="53">
         <v>15.0</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="54">
         <f t="shared" ref="E4:E7" si="2">IF(AND(C4&lt;&gt;"",D4&lt;&gt;""),C4+D4-1,"")</f>
         <v>43376</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="51">
         <f>IF(B4="","",SUMIF('Backlog del Producto'!N$7:N$45,Sprints!B4,'Backlog del Producto'!L$7:L$45))</f>
-        <v>45</v>
+        <v>0</v>
       </c>
-      <c r="G4" s="50" t="s">
-        <v>93</v>
+      <c r="G4" s="55" t="s">
+        <v>113</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="51"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="56"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="B5" s="46">
+      <c r="B5" s="51">
         <v>3.0</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="57">
         <f t="shared" si="1"/>
         <v>43377</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="53">
         <v>30.0</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="54">
         <f t="shared" si="2"/>
         <v>43406</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="51">
         <f>IF(B5="","",SUMIF('Backlog del Producto'!N$7:N$45,Sprints!B5,'Backlog del Producto'!L$7:L$45))</f>
-        <v>65</v>
+        <v>0</v>
       </c>
-      <c r="G5" s="50" t="s">
-        <v>93</v>
+      <c r="G5" s="55" t="s">
+        <v>113</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="51"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="56"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="B6" s="46">
+      <c r="B6" s="51">
         <v>4.0</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="57">
         <f t="shared" si="1"/>
         <v>43407</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="53">
         <v>30.0</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="54">
         <f t="shared" si="2"/>
         <v>43436</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="51">
         <f>IF(B6="","",SUMIF('Backlog del Producto'!N$7:N$45,Sprints!B6,'Backlog del Producto'!L$7:L$45))</f>
         <v>0</v>
       </c>
-      <c r="G6" s="50" t="s">
-        <v>93</v>
+      <c r="G6" s="55" t="s">
+        <v>113</v>
       </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="51"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="56"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="B7" s="46">
+      <c r="B7" s="51">
         <v>5.0</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="57">
         <f t="shared" si="1"/>
         <v>43437</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="53">
         <v>30.0</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="54">
         <f t="shared" si="2"/>
         <v>43466</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="51">
         <f>IF(B7="","",SUMIF('Backlog del Producto'!N$7:N$45,Sprints!B7,'Backlog del Producto'!L$7:L$45))</f>
         <v>0</v>
       </c>
-      <c r="G7" s="50" t="s">
-        <v>93</v>
+      <c r="G7" s="55" t="s">
+        <v>113</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="51"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="56"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="B8" s="46"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="56"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="B9" s="46" t="str">
+      <c r="B9" s="51" t="str">
         <f t="shared" ref="B9:B17" si="3">IF(AND(C9&lt;&gt;"",D9&lt;&gt;""),B8+1,"")</f>
         <v/>
       </c>
-      <c r="C9" s="52" t="str">
+      <c r="C9" s="57" t="str">
         <f t="shared" ref="C9:C17" si="4">IF(AND(C8&lt;&gt;"",D8&lt;&gt;"",D9&lt;&gt;""),C8+D8,"")</f>
         <v/>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49" t="str">
+      <c r="D9" s="53"/>
+      <c r="E9" s="54" t="str">
         <f t="shared" ref="E9:E17" si="5">IF(AND(C9&lt;&gt;"",D9&lt;&gt;""),C9+D9-1,"")</f>
         <v/>
       </c>
-      <c r="F9" s="46" t="str">
+      <c r="F9" s="51" t="str">
         <f>IF(B9="","",SUMIF('Backlog del Producto'!N$9:N$45,Sprints!B9,'Backlog del Producto'!L$9:L$45))</f>
         <v/>
       </c>
-      <c r="G9" s="50" t="str">
+      <c r="G9" s="55" t="str">
         <f t="shared" ref="G9:G17" si="6">IF(AND(OR(G8="Planned",G8="Ongoing"),D9&lt;&gt;""),"Planned","Unplanned")</f>
         <v>Unplanned</v>
       </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="51"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="56"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="B10" s="46" t="str">
+      <c r="B10" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C10" s="52" t="str">
+      <c r="C10" s="57" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49" t="str">
+      <c r="D10" s="53"/>
+      <c r="E10" s="54" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F10" s="46" t="str">
+      <c r="F10" s="51" t="str">
         <f>IF(B10="","",SUMIF('Backlog del Producto'!N$9:N$45,Sprints!B10,'Backlog del Producto'!L$9:L$45))</f>
         <v/>
       </c>
-      <c r="G10" s="50" t="str">
+      <c r="G10" s="55" t="str">
         <f t="shared" si="6"/>
         <v>Unplanned</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="51"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="56"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="B11" s="46" t="str">
+      <c r="B11" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C11" s="52" t="str">
+      <c r="C11" s="57" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49" t="str">
+      <c r="D11" s="53"/>
+      <c r="E11" s="54" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F11" s="46" t="str">
+      <c r="F11" s="51" t="str">
         <f>IF(B11="","",SUMIF('Backlog del Producto'!N$9:N$45,Sprints!B11,'Backlog del Producto'!L$9:L$45))</f>
         <v/>
       </c>
-      <c r="G11" s="50" t="str">
+      <c r="G11" s="55" t="str">
         <f t="shared" si="6"/>
         <v>Unplanned</v>
       </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="51"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="56"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="B12" s="46" t="str">
+      <c r="B12" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C12" s="52" t="str">
+      <c r="C12" s="57" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49" t="str">
+      <c r="D12" s="53"/>
+      <c r="E12" s="54" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F12" s="46" t="str">
+      <c r="F12" s="51" t="str">
         <f>IF(B12="","",SUMIF('Backlog del Producto'!N$9:N$45,Sprints!B12,'Backlog del Producto'!L$9:L$45))</f>
         <v/>
       </c>
-      <c r="G12" s="50" t="str">
+      <c r="G12" s="55" t="str">
         <f t="shared" si="6"/>
         <v>Unplanned</v>
       </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="51"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="56"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="B13" s="46" t="str">
+      <c r="B13" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C13" s="52" t="str">
+      <c r="C13" s="57" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49" t="str">
+      <c r="D13" s="53"/>
+      <c r="E13" s="54" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F13" s="46" t="str">
+      <c r="F13" s="51" t="str">
         <f>IF(B13="","",SUMIF('Backlog del Producto'!N$9:N$45,Sprints!B13,'Backlog del Producto'!L$9:L$45))</f>
         <v/>
       </c>
-      <c r="G13" s="50" t="str">
+      <c r="G13" s="55" t="str">
         <f t="shared" si="6"/>
         <v>Unplanned</v>
       </c>
-      <c r="H13" s="48"/>
-      <c r="I13" s="51"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="56"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="B14" s="46" t="str">
+      <c r="B14" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C14" s="52" t="str">
+      <c r="C14" s="57" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49" t="str">
+      <c r="D14" s="53"/>
+      <c r="E14" s="54" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F14" s="46" t="str">
+      <c r="F14" s="51" t="str">
         <f>IF(B14="","",SUMIF('Backlog del Producto'!N$9:N$45,Sprints!B14,'Backlog del Producto'!L$9:L$45))</f>
         <v/>
       </c>
-      <c r="G14" s="50" t="str">
+      <c r="G14" s="55" t="str">
         <f t="shared" si="6"/>
         <v>Unplanned</v>
       </c>
-      <c r="H14" s="48"/>
-      <c r="I14" s="51"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="56"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="B15" s="46" t="str">
+      <c r="B15" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C15" s="52" t="str">
+      <c r="C15" s="57" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49" t="str">
+      <c r="D15" s="53"/>
+      <c r="E15" s="54" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="46" t="str">
+      <c r="F15" s="51" t="str">
         <f>IF(B15="","",SUMIF('Backlog del Producto'!N$9:N$45,Sprints!B15,'Backlog del Producto'!L$9:L$45))</f>
         <v/>
       </c>
-      <c r="G15" s="50" t="str">
+      <c r="G15" s="55" t="str">
         <f t="shared" si="6"/>
         <v>Unplanned</v>
       </c>
-      <c r="H15" s="48"/>
-      <c r="I15" s="51"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="56"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="B16" s="46" t="str">
+      <c r="B16" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C16" s="52" t="str">
+      <c r="C16" s="57" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49" t="str">
+      <c r="D16" s="53"/>
+      <c r="E16" s="54" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F16" s="46" t="str">
+      <c r="F16" s="51" t="str">
         <f>IF(B16="","",SUMIF('Backlog del Producto'!N$9:N$45,Sprints!B16,'Backlog del Producto'!L$9:L$45))</f>
         <v/>
       </c>
-      <c r="G16" s="50" t="str">
+      <c r="G16" s="55" t="str">
         <f t="shared" si="6"/>
         <v>Unplanned</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="51"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="56"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="B17" s="46" t="str">
+      <c r="B17" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C17" s="52" t="str">
+      <c r="C17" s="57" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49" t="str">
+      <c r="D17" s="53"/>
+      <c r="E17" s="54" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F17" s="46" t="str">
+      <c r="F17" s="51" t="str">
         <f>IF(B17="","",SUMIF('Backlog del Producto'!N$9:N$45,Sprints!B17,'Backlog del Producto'!L$9:L$45))</f>
         <v/>
       </c>
-      <c r="G17" s="50" t="str">
+      <c r="G17" s="55" t="str">
         <f t="shared" si="6"/>
         <v>Unplanned</v>
       </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="51"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="56"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54" t="s">
-        <v>94</v>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59" t="s">
+        <v>114</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="51">
         <f>SUMIF('Backlog del Producto'!N$9:N$45,"",'Backlog del Producto'!L$9:L$45)-SUMIF('Backlog del Producto'!O$9:O$45,"Eliminado",'Backlog del Producto'!L$9:L$45)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="60"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="H19" s="17"/>
